--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/04-交叉报表—数据双向扩展.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/04-交叉报表—数据双向扩展.xpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCEFAF5-BA09-4C15-8236-0CABECFDC462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5231AA-0B0B-4A39-9DB2-818151937E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="XptWorkbookModel" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -69,8 +69,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>valueExpr=SUM(D3)
-rowParent=B3</t>
+          <t>rowParent=B3</t>
         </r>
       </text>
     </comment>
@@ -613,7 +612,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -663,7 +662,8 @@
         <v>747</v>
       </c>
       <c r="F3" s="3">
-        <v>1869</v>
+        <f>SUM(D3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
